--- a/Data/관심주_전월10이평돌파.xlsx
+++ b/Data/관심주_전월10이평돌파.xlsx
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -814,6 +814,76 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>풍산홀딩스</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>28500</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24128</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24599</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25149</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25698</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26012</v>
+      </c>
+      <c r="J4" t="n">
+        <v>27048</v>
+      </c>
+      <c r="K4" t="n">
+        <v>27975</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28901</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30581</v>
+      </c>
+      <c r="N4" t="n">
+        <v>31900</v>
+      </c>
+      <c r="O4" t="n">
+        <v>34898</v>
+      </c>
+      <c r="P4" t="n">
+        <v>36829</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>39750</v>
+      </c>
+      <c r="R4" t="n">
+        <v>103540</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24050</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -826,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -1004,6 +1074,70 @@
       </c>
       <c r="P2" t="n">
         <v>89.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-01-17</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>풍산홀딩스</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>28500</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24050</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>31900</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>31900</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24050</v>
+      </c>
+      <c r="K3" t="n">
+        <v>27310</v>
+      </c>
+      <c r="L3" t="n">
+        <v>104.35</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>28367</v>
+      </c>
+      <c r="P3" t="n">
+        <v>100.47</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_전월10이평돌파.xlsx
+++ b/Data/관심주_전월10이평돌파.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12" yWindow="-12" windowWidth="23088" windowHeight="4740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-12" yWindow="-12" windowWidth="23088" windowHeight="4740" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="상승파동비율" sheetId="1" state="visible" r:id="rId1"/>
@@ -557,13 +557,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.21875" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="10.33203125" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
     <col width="7" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
@@ -677,210 +677,560 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002310</t>
+          <t>002720</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>아세아제지</t>
+          <t>국제약품</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38950</v>
+        <v>4955</v>
       </c>
       <c r="E2" t="n">
-        <v>31645</v>
+        <v>4437</v>
       </c>
       <c r="F2" t="n">
-        <v>33115</v>
+        <v>4544</v>
       </c>
       <c r="G2" t="n">
-        <v>34830</v>
+        <v>4669</v>
       </c>
       <c r="H2" t="n">
-        <v>36545</v>
+        <v>4793</v>
       </c>
       <c r="I2" t="n">
-        <v>37525</v>
+        <v>4865</v>
       </c>
       <c r="J2" t="n">
-        <v>40759</v>
+        <v>5099</v>
       </c>
       <c r="K2" t="n">
-        <v>43650</v>
+        <v>5310</v>
       </c>
       <c r="L2" t="n">
-        <v>46541</v>
+        <v>5520</v>
       </c>
       <c r="M2" t="n">
-        <v>51784</v>
+        <v>5900</v>
       </c>
       <c r="N2" t="n">
-        <v>55900</v>
+        <v>6200</v>
       </c>
       <c r="O2" t="n">
-        <v>65259</v>
+        <v>6879</v>
       </c>
       <c r="P2" t="n">
-        <v>71286</v>
+        <v>7317</v>
       </c>
       <c r="Q2" t="n">
-        <v>80400</v>
+        <v>7980</v>
       </c>
       <c r="R2" t="n">
-        <v>81094</v>
+        <v>2074</v>
       </c>
       <c r="S2" t="n">
-        <v>31400</v>
+        <v>4420</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-12-12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002310</t>
+          <t>330350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>아세아제지</t>
+          <t>위더스제약</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>38950</v>
+        <v>8930</v>
       </c>
       <c r="E3" t="n">
-        <v>31645</v>
+        <v>8131</v>
       </c>
       <c r="F3" t="n">
-        <v>33115</v>
+        <v>8203</v>
       </c>
       <c r="G3" t="n">
-        <v>34830</v>
+        <v>8286</v>
       </c>
       <c r="H3" t="n">
-        <v>36545</v>
+        <v>8369</v>
       </c>
       <c r="I3" t="n">
-        <v>37525</v>
+        <v>8417</v>
       </c>
       <c r="J3" t="n">
-        <v>40759</v>
+        <v>8574</v>
       </c>
       <c r="K3" t="n">
-        <v>43650</v>
+        <v>8715</v>
       </c>
       <c r="L3" t="n">
-        <v>46541</v>
+        <v>8855</v>
       </c>
       <c r="M3" t="n">
-        <v>51784</v>
+        <v>9110</v>
       </c>
       <c r="N3" t="n">
-        <v>55900</v>
+        <v>9310</v>
       </c>
       <c r="O3" t="n">
-        <v>65259</v>
+        <v>9764</v>
       </c>
       <c r="P3" t="n">
-        <v>71286</v>
+        <v>10057</v>
       </c>
       <c r="Q3" t="n">
-        <v>80400</v>
+        <v>10500</v>
       </c>
       <c r="R3" t="n">
-        <v>81094</v>
+        <v>4974</v>
       </c>
       <c r="S3" t="n">
-        <v>31400</v>
+        <v>8120</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005810</t>
+          <t>061250</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>풍산홀딩스</t>
+          <t>화일약품</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28500</v>
+        <v>2515</v>
       </c>
       <c r="E4" t="n">
-        <v>24128</v>
+        <v>2133</v>
       </c>
       <c r="F4" t="n">
-        <v>24599</v>
+        <v>2187</v>
       </c>
       <c r="G4" t="n">
-        <v>25149</v>
+        <v>2250</v>
       </c>
       <c r="H4" t="n">
-        <v>25698</v>
+        <v>2312</v>
       </c>
       <c r="I4" t="n">
-        <v>26012</v>
+        <v>2348</v>
       </c>
       <c r="J4" t="n">
-        <v>27048</v>
+        <v>2466</v>
       </c>
       <c r="K4" t="n">
-        <v>27975</v>
+        <v>2572</v>
       </c>
       <c r="L4" t="n">
-        <v>28901</v>
+        <v>2678</v>
       </c>
       <c r="M4" t="n">
-        <v>30581</v>
+        <v>2869</v>
       </c>
       <c r="N4" t="n">
-        <v>31900</v>
+        <v>3020</v>
       </c>
       <c r="O4" t="n">
-        <v>34898</v>
+        <v>3361</v>
       </c>
       <c r="P4" t="n">
-        <v>36829</v>
+        <v>3582</v>
       </c>
       <c r="Q4" t="n">
-        <v>39750</v>
+        <v>3915</v>
       </c>
       <c r="R4" t="n">
-        <v>103540</v>
+        <v>1823</v>
       </c>
       <c r="S4" t="n">
-        <v>24050</v>
+        <v>2125</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>알리코제약</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6380</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6197</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6241</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6292</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6343</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6372</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6468</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6555</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6641</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6797</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6920</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7198</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7378</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7650</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5402</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6190</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>234690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>녹십자웰빙</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>7880</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7315</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7409</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7518</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7627</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7690</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7895</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8080</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8264</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8597</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8860</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9455</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9839</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10420</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3908</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7300</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>033130</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>디지틀조선</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2490</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2323</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2343</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2366</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2389</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2402</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2446</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2485</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2523</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2594</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2650</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2776</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2857</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2980</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1455</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2320</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>039860</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>나노엔텍</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5620</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5017</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5250</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5375</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5447</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5683</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5895</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6489</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6790</v>
+      </c>
+      <c r="O8" t="n">
+        <v>7473</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7914</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>8580</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>149980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>하이로닉</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7180</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6750</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6810</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6881</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6952</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6992</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7125</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7245</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7364</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7580</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7750</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8135</v>
+      </c>
+      <c r="P9" t="n">
+        <v>8384</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>8760</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4860</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6740</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
         </is>
       </c>
     </row>
@@ -896,13 +1246,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="10.33203125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="7" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
@@ -1015,49 +1365,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002310</t>
+          <t>002720</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>아세아제지</t>
+          <t>국제약품</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38950</v>
+        <v>4955</v>
       </c>
       <c r="E2" t="n">
-        <v>31400</v>
+        <v>4420</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>55900</v>
+        <v>6200</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>55900</v>
+        <v>7220</v>
       </c>
       <c r="J2" t="n">
-        <v>31400</v>
+        <v>3830</v>
       </c>
       <c r="K2" t="n">
-        <v>37343</v>
+        <v>4878</v>
       </c>
       <c r="L2" t="n">
-        <v>104.3</v>
+        <v>101.56</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -1070,74 +1420,458 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>43650</v>
+        <v>5441</v>
       </c>
       <c r="P2" t="n">
-        <v>89.23</v>
+        <v>91.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005810</t>
+          <t>330350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>풍산홀딩스</t>
+          <t>위더스제약</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28500</v>
+        <v>8930</v>
       </c>
       <c r="E3" t="n">
-        <v>24050</v>
+        <v>8120</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>31900</v>
+        <v>9310</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>31900</v>
+        <v>16100</v>
       </c>
       <c r="J3" t="n">
-        <v>24050</v>
+        <v>5960</v>
       </c>
       <c r="K3" t="n">
-        <v>27310</v>
+        <v>7905</v>
       </c>
       <c r="L3" t="n">
-        <v>104.35</v>
+        <v>112.97</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>9600</v>
+      </c>
+      <c r="P3" t="n">
+        <v>93.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>061250</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>화일약품</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2515</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2125</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3020</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>3755</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1840</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2440</v>
+      </c>
+      <c r="L4" t="n">
+        <v>103.04</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>봄1</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>2638</v>
+      </c>
+      <c r="P4" t="n">
+        <v>95.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>260660</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>알리코제약</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6380</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6190</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>6920</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2022-12-05</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>9330</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4965</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6075</v>
+      </c>
+      <c r="L5" t="n">
+        <v>105</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>6870</v>
+      </c>
+      <c r="P5" t="n">
+        <v>92.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>234690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>녹십자웰빙</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>7880</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7300</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>8860</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>11100</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5910</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7443</v>
+      </c>
+      <c r="L6" t="n">
+        <v>105.86</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>8753</v>
+      </c>
+      <c r="P6" t="n">
+        <v>90.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>033130</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>디지틀조선</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2490</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2320</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2650</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>3440</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1895</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2302</v>
+      </c>
+      <c r="L7" t="n">
+        <v>108.14</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>여름2</t>
         </is>
       </c>
-      <c r="O3" t="n">
-        <v>28367</v>
-      </c>
-      <c r="P3" t="n">
-        <v>100.47</v>
+      <c r="O7" t="n">
+        <v>2803</v>
+      </c>
+      <c r="P7" t="n">
+        <v>88.81999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>039860</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>나노엔텍</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5620</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>6790</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2022-12-12</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>9250</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4300</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5416</v>
+      </c>
+      <c r="L8" t="n">
+        <v>103.76</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>6340</v>
+      </c>
+      <c r="P8" t="n">
+        <v>88.64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-01-18</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>149980</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>하이로닉</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7180</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6740</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>7750</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>14900</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4990</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6649</v>
+      </c>
+      <c r="L9" t="n">
+        <v>107.98</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>7950</v>
+      </c>
+      <c r="P9" t="n">
+        <v>90.31</v>
       </c>
     </row>
   </sheetData>
@@ -1157,7 +1891,7 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="8.88671875" customWidth="1" style="4" min="1" max="2"/>
   </cols>
@@ -1236,7 +1970,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="10.33203125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="10.33203125" customWidth="1" style="4" min="2" max="2"/>

--- a/Data/관심주_전월10이평돌파.xlsx
+++ b/Data/관심주_전월10이평돌파.xlsx
@@ -562,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3875,6 +3875,76 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>372910</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>한컴라이프케어</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>6090</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4337</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4771</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5277</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5784</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6073</v>
+      </c>
+      <c r="J49" t="n">
+        <v>7028</v>
+      </c>
+      <c r="K49" t="n">
+        <v>7882</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8736</v>
+      </c>
+      <c r="M49" t="n">
+        <v>10284</v>
+      </c>
+      <c r="N49" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O49" t="n">
+        <v>14263</v>
+      </c>
+      <c r="P49" t="n">
+        <v>16043</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>18735</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7518</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4265</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3887,7 +3957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
@@ -6698,6 +6768,70 @@
       </c>
       <c r="P41" t="n">
         <v>110.89</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-01-24</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>372910</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>한컴라이프케어</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>6090</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4265</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>11500</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2022-12-14</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>9050</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4265</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5642</v>
+      </c>
+      <c r="L42" t="n">
+        <v>107.93</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>봄1</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>6937</v>
+      </c>
+      <c r="P42" t="n">
+        <v>87.79000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Data/관심주_전월10이평돌파.xlsx
+++ b/Data/관심주_전월10이평돌파.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="3960" windowWidth="22200" windowHeight="3996" activeTab="1"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="23088" windowHeight="4752" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="상승파동비율" sheetId="1" r:id="rId1"/>
     <sheet name="위치정보" sheetId="2" r:id="rId2"/>
-    <sheet name="매수" sheetId="3" r:id="rId3"/>
-    <sheet name="매도" sheetId="4" r:id="rId4"/>
+    <sheet name="발굴사유" sheetId="3" r:id="rId3"/>
+    <sheet name="매수" sheetId="4" r:id="rId4"/>
+    <sheet name="매도" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="112">
   <si>
     <t>날짜</t>
   </si>
@@ -214,6 +215,9 @@
     <t>한컴라이프케어</t>
   </si>
   <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
     <t>현재가</t>
   </si>
   <si>
@@ -250,6 +254,12 @@
     <t>주봉60종가</t>
   </si>
   <si>
+    <t>3년이평최근</t>
+  </si>
+  <si>
+    <t>3년이격률최근</t>
+  </si>
+  <si>
     <t>2022-04-06</t>
   </si>
   <si>
@@ -307,6 +317,15 @@
     <t>2021-08-17</t>
   </si>
   <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>주봉에서 60주선 돌파 하였슴
+일봉과 분봉에서 타점을 잡는다.
+매출 상승중이며 유동비율, 당좌비율은 엄청 좋다
+테마는 코비드19이후 리오프닝의 2차 수혜주가 될 가능성이 높다</t>
+  </si>
+  <si>
     <t>매입일</t>
   </si>
   <si>
@@ -338,12 +357,6 @@
   </si>
   <si>
     <t>총매도액</t>
-  </si>
-  <si>
-    <t>3년이평최근</t>
-  </si>
-  <si>
-    <t>3년이격률최근</t>
   </si>
 </sst>
 </file>
@@ -470,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -523,6 +536,15 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -819,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
@@ -1950,6 +1972,68 @@
         <v>28</v>
       </c>
     </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>7740</v>
+      </c>
+      <c r="E19">
+        <v>5151</v>
+      </c>
+      <c r="F19">
+        <v>5703</v>
+      </c>
+      <c r="G19">
+        <v>6346</v>
+      </c>
+      <c r="H19">
+        <v>6989</v>
+      </c>
+      <c r="I19">
+        <v>7357</v>
+      </c>
+      <c r="J19">
+        <v>8570</v>
+      </c>
+      <c r="K19">
+        <v>9655</v>
+      </c>
+      <c r="L19">
+        <v>10739</v>
+      </c>
+      <c r="M19">
+        <v>12706</v>
+      </c>
+      <c r="N19">
+        <v>14250</v>
+      </c>
+      <c r="O19">
+        <v>17760</v>
+      </c>
+      <c r="P19">
+        <v>20021</v>
+      </c>
+      <c r="Q19">
+        <v>23440</v>
+      </c>
+      <c r="R19">
+        <v>4860</v>
+      </c>
+      <c r="S19">
+        <v>5060</v>
+      </c>
+      <c r="T19" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1958,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1995,49 +2079,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2063,7 +2147,7 @@
         <v>14900</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I2">
         <v>14900</v>
@@ -2078,10 +2162,10 @@
         <v>116.56</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O2">
         <v>7560</v>
@@ -2113,7 +2197,7 @@
         <v>11000</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>11100</v>
@@ -2128,10 +2212,10 @@
         <v>106.36</v>
       </c>
       <c r="M3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O3">
         <v>7840</v>
@@ -2163,7 +2247,7 @@
         <v>3440</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>3440</v>
@@ -2178,10 +2262,10 @@
         <v>107.94</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O4">
         <v>2335</v>
@@ -2213,7 +2297,7 @@
         <v>9250</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9250</v>
@@ -2228,10 +2312,10 @@
         <v>101.97</v>
       </c>
       <c r="M5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
       </c>
       <c r="O5">
         <v>7150</v>
@@ -2263,7 +2347,7 @@
         <v>1815</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I6">
         <v>1815</v>
@@ -2278,10 +2362,10 @@
         <v>114.4</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O6">
         <v>3700</v>
@@ -2313,7 +2397,7 @@
         <v>44500</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I7">
         <v>45150</v>
@@ -2328,10 +2412,10 @@
         <v>110.45</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O7">
         <v>20800</v>
@@ -2363,7 +2447,7 @@
         <v>19550</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I8">
         <v>19550</v>
@@ -2378,10 +2462,10 @@
         <v>104.64</v>
       </c>
       <c r="M8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O8">
         <v>16100</v>
@@ -2413,7 +2497,7 @@
         <v>249000</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I9">
         <v>198000</v>
@@ -2428,10 +2512,10 @@
         <v>110.41</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O9">
         <v>157500</v>
@@ -2463,7 +2547,7 @@
         <v>9310</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I10">
         <v>7400</v>
@@ -2478,10 +2562,10 @@
         <v>121.61</v>
       </c>
       <c r="M10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O10">
         <v>7470</v>
@@ -2513,7 +2597,7 @@
         <v>3310</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I11">
         <v>3310</v>
@@ -2528,10 +2612,10 @@
         <v>110.87</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O11">
         <v>22750</v>
@@ -2563,7 +2647,7 @@
         <v>74700</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I12">
         <v>62700</v>
@@ -2578,10 +2662,10 @@
         <v>112.24</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O12">
         <v>16900</v>
@@ -2613,7 +2697,7 @@
         <v>35200</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I13">
         <v>35200</v>
@@ -2628,10 +2712,10 @@
         <v>117.25</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O13">
         <v>47850</v>
@@ -2663,7 +2747,7 @@
         <v>199500</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I14">
         <v>109300</v>
@@ -2678,10 +2762,10 @@
         <v>134.75</v>
       </c>
       <c r="M14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O14">
         <v>16050</v>
@@ -2713,7 +2797,7 @@
         <v>16700</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I15">
         <v>11100</v>
@@ -2728,10 +2812,10 @@
         <v>118.21</v>
       </c>
       <c r="M15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O15">
         <v>8350</v>
@@ -2763,7 +2847,7 @@
         <v>50300</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I16">
         <v>35000</v>
@@ -2778,10 +2862,10 @@
         <v>110.69</v>
       </c>
       <c r="M16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O16">
         <v>26450</v>
@@ -2813,7 +2897,7 @@
         <v>51000</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I17">
         <v>42850</v>
@@ -2828,10 +2912,10 @@
         <v>142.19</v>
       </c>
       <c r="M17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O17">
         <v>13350</v>
@@ -2863,7 +2947,7 @@
         <v>17600</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I18">
         <v>9050</v>
@@ -2878,16 +2962,116 @@
         <v>107.93</v>
       </c>
       <c r="M18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O18">
         <v>6110</v>
       </c>
       <c r="P18">
         <v>6090</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>7740</v>
+      </c>
+      <c r="E19">
+        <v>5060</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>14250</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19">
+        <v>14900</v>
+      </c>
+      <c r="J19">
+        <v>4990</v>
+      </c>
+      <c r="K19">
+        <v>6661</v>
+      </c>
+      <c r="L19">
+        <v>116.18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19">
+        <v>7950</v>
+      </c>
+      <c r="P19">
+        <v>7740</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>7740</v>
+      </c>
+      <c r="E20">
+        <v>5060</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20">
+        <v>14250</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <v>14900</v>
+      </c>
+      <c r="J20">
+        <v>4990</v>
+      </c>
+      <c r="K20">
+        <v>6661</v>
+      </c>
+      <c r="L20">
+        <v>116.18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O20">
+        <v>7950</v>
+      </c>
+      <c r="P20">
+        <v>7740</v>
       </c>
     </row>
   </sheetData>
@@ -2896,6 +3080,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="155" style="19" customWidth="1"/>
+    <col min="5" max="7" width="8.88671875" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57.6">
+      <c r="A2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -2919,28 +3154,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2948,7 +3183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -2975,25 +3210,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="K1" s="3"/>
     </row>

--- a/Data/관심주_전월10이평돌파.xlsx
+++ b/Data/관심주_전월10이평돌파.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="23088" windowHeight="4752"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="23088" windowHeight="4752" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="상승파동비율" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>날짜</t>
   </si>
@@ -80,6 +80,9 @@
     <t>최저가일</t>
   </si>
   <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
     <t>149980</t>
   </si>
   <si>
@@ -89,7 +92,16 @@
     <t>2022-10-13</t>
   </si>
   <si>
-    <t>2023-01-25</t>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>241840</t>
+  </si>
+  <si>
+    <t>에이스토리</t>
+  </si>
+  <si>
+    <t>2022-06-23</t>
   </si>
   <si>
     <t>현재가</t>
@@ -141,6 +153,12 @@
   </si>
   <si>
     <t>여름1</t>
+  </si>
+  <si>
+    <t>봄1</t>
+  </si>
+  <si>
+    <t>여름2</t>
   </si>
   <si>
     <t>설명</t>
@@ -150,6 +168,11 @@
 일봉과 분봉에서 타점을 잡는다.
 매출 상승중이며 유동비율, 당좌비율은 엄청 좋다
 테마는 코비드19이후 리오프닝의 2차 수혜주가 될 가능성이 높다</t>
+  </si>
+  <si>
+    <t>전주에 주60선 살짝 돌파하였음
+매출액 증가 지속, 재무상태 양호,  유동비율/당좌비율/부채비율양호
+NFT테마가 곧 주도할 가능성 있음</t>
   </si>
   <si>
     <t>매입일</t>
@@ -667,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.21875" defaultRowHeight="14.4"/>
@@ -746,13 +769,13 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>7740</v>
@@ -803,7 +826,69 @@
         <v>5060</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>25850</v>
+      </c>
+      <c r="E3">
+        <v>16422</v>
+      </c>
+      <c r="F3">
+        <v>17457</v>
+      </c>
+      <c r="G3">
+        <v>18665</v>
+      </c>
+      <c r="H3">
+        <v>19872</v>
+      </c>
+      <c r="I3">
+        <v>20562</v>
+      </c>
+      <c r="J3">
+        <v>22839</v>
+      </c>
+      <c r="K3">
+        <v>24875</v>
+      </c>
+      <c r="L3">
+        <v>26910</v>
+      </c>
+      <c r="M3">
+        <v>30602</v>
+      </c>
+      <c r="N3">
+        <v>33500</v>
+      </c>
+      <c r="O3">
+        <v>40089</v>
+      </c>
+      <c r="P3">
+        <v>44333</v>
+      </c>
+      <c r="Q3">
+        <v>50750</v>
+      </c>
+      <c r="R3">
+        <v>7109</v>
+      </c>
+      <c r="S3">
+        <v>16250</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -814,10 +899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -851,60 +936,60 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>7740</v>
@@ -913,13 +998,13 @@
         <v>5060</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>14250</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>14900</v>
@@ -934,16 +1019,66 @@
         <v>116.18</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O2">
         <v>7950</v>
       </c>
       <c r="P2">
         <v>7740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>25850</v>
+      </c>
+      <c r="E3">
+        <v>16250</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>33500</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>35000</v>
+      </c>
+      <c r="J3">
+        <v>16050</v>
+      </c>
+      <c r="K3">
+        <v>23545</v>
+      </c>
+      <c r="L3">
+        <v>109.79</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3">
+        <v>24300</v>
+      </c>
+      <c r="P3">
+        <v>26100</v>
       </c>
     </row>
   </sheetData>
@@ -953,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -965,8 +1100,8 @@
     <col min="2" max="2" width="7" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.21875" style="19" customWidth="1"/>
     <col min="4" max="4" width="155" style="19" customWidth="1"/>
-    <col min="5" max="7" width="8.88671875" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="19"/>
+    <col min="5" max="8" width="8.88671875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" thickBot="1">
@@ -980,21 +1115,35 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6">
+    <row r="2" spans="1:4" ht="57.6" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1026,28 +1175,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1082,25 +1231,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3"/>
     </row>

--- a/Data/관심주_전월10이평돌파.xlsx
+++ b/Data/관심주_전월10이평돌파.xlsx
@@ -567,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -964,6 +964,216 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>054780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>키이스트</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5646</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6043</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6506</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6970</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7235</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8108</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8890</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9671</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11087</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12200</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14728</v>
+      </c>
+      <c r="P6" t="n">
+        <v>16357</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>18820</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2193</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5580</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>키다리스튜디오</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10110</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6073</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6575</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7160</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7745</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8080</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9183</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10170</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11156</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12945</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14350</v>
+      </c>
+      <c r="O7" t="n">
+        <v>17543</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19600</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>22710</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3617</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5990</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>170900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>동아에스티</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46437</v>
+      </c>
+      <c r="F8" t="n">
+        <v>47809</v>
+      </c>
+      <c r="G8" t="n">
+        <v>49409</v>
+      </c>
+      <c r="H8" t="n">
+        <v>51009</v>
+      </c>
+      <c r="I8" t="n">
+        <v>51923</v>
+      </c>
+      <c r="J8" t="n">
+        <v>54941</v>
+      </c>
+      <c r="K8" t="n">
+        <v>57638</v>
+      </c>
+      <c r="L8" t="n">
+        <v>60335</v>
+      </c>
+      <c r="M8" t="n">
+        <v>65227</v>
+      </c>
+      <c r="N8" t="n">
+        <v>69068</v>
+      </c>
+      <c r="O8" t="n">
+        <v>77800</v>
+      </c>
+      <c r="P8" t="n">
+        <v>83423</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>91927</v>
+      </c>
+      <c r="R8" t="n">
+        <v>54576</v>
+      </c>
+      <c r="S8" t="n">
+        <v>46209</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -976,7 +1186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -1350,6 +1560,198 @@
         <v>9050</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>054780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>키이스트</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9740</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5580</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>12200</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>13300</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5380</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7803</v>
+      </c>
+      <c r="L6" t="n">
+        <v>124.82</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>9240</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>키다리스튜디오</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10110</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5990</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>14350</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>21450</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8407</v>
+      </c>
+      <c r="L7" t="n">
+        <v>120.26</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>여름1</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>9860</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>170900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>동아에스티</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46209</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>69068</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2022-04-28</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>70146</v>
+      </c>
+      <c r="J8" t="n">
+        <v>46208</v>
+      </c>
+      <c r="K8" t="n">
+        <v>56797</v>
+      </c>
+      <c r="L8" t="n">
+        <v>110.92</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>봄2</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>여름2</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>64500</v>
+      </c>
+      <c r="P8" t="n">
+        <v>61400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1361,7 +1763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1495,6 +1897,81 @@
 매출/이익 꾸준함
 당좌비율/유동비율/부채비율 매우 우수함
 탈모치료제 관련주</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>054780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>키이스트</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>주봉60선 살짝 돌파
+매출은 꾸준/당기순이익 별로 않좋음
+당좌비율/유동비율/부채비율 좋음
+중국 리오프닝 수혜 테마 부각 가능</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>키다리스튜디오</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>주봉60재돌파
+매출/이익 증가중
+유동비율/당좌비율/부채비율 좋음
+모바일콘텐츠/웹툰테마 부각 가능성 있음</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-01-26</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>170900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>동아에스티</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>주봉60선 금일 돌파
+매출/이익 꾸준함
+유동/당좌/부채비율 좋음
+치매/면역항암제/슈퍼박테이라/바이오시밀러 테마있음</t>
         </is>
       </c>
     </row>
